--- a/笔记/学习时间表.xlsx
+++ b/笔记/学习时间表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>10月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,13 +28,118 @@
   <si>
     <t>下载上传的nio</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>shiro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调优</t>
+    </r>
+  </si>
+  <si>
+    <t>各种配置如何使用和执行</t>
+  </si>
+  <si>
+    <r>
+      <t>Activiti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流程处理引擎</t>
+    </r>
+  </si>
+  <si>
+    <t>权限管理控制全过程</t>
+  </si>
+  <si>
+    <r>
+      <t>Redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置和工具类使用全过程，在虚拟机部署一个</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ORM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理解，</t>
+    </r>
+  </si>
+  <si>
+    <t>周末框架，</t>
+  </si>
+  <si>
+    <t>理解项目里自己写的下载存储，发送邮件等</t>
+  </si>
+  <si>
+    <t>BPMN2.0</t>
+  </si>
+  <si>
+    <t>定时任务，启动获取资源配置</t>
+  </si>
+  <si>
+    <t>Linux部署各种资源：先mysql，后redis，hbase，ELK，docker，kafka，hadoop等，启动脚本可以网上找</t>
+  </si>
+  <si>
+    <t>其它语言：scala，c++，c#</t>
+  </si>
+  <si>
+    <t>Nginx常用配置</t>
+  </si>
+  <si>
+    <t>aspect切面编程，以及注释</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +154,33 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,9 +205,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,13 +515,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="46.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -392,6 +539,81 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="27">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="38.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="27">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="38.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="78">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="27">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="25.5">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="63.75">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="54">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="189">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="54">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="40.5">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/笔记/学习时间表.xlsx
+++ b/笔记/学习时间表.xlsx
@@ -22,27 +22,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目整体架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下载上传的nio</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>shiro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>框架，</t>
-    </r>
   </si>
   <si>
     <r>
@@ -114,15 +95,9 @@
     <t>周末框架，</t>
   </si>
   <si>
-    <t>理解项目里自己写的下载存储，发送邮件等</t>
-  </si>
-  <si>
     <t>BPMN2.0</t>
   </si>
   <si>
-    <t>定时任务，启动获取资源配置</t>
-  </si>
-  <si>
     <t>Linux部署各种资源：先mysql，后redis，hbase，ELK，docker，kafka，hadoop等，启动脚本可以网上找</t>
   </si>
   <si>
@@ -133,6 +108,43 @@
   </si>
   <si>
     <t>aspect切面编程，以及注释</t>
+  </si>
+  <si>
+    <r>
+      <t>shiro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架，项目的权限</t>
+    </r>
+  </si>
+  <si>
+    <t>理解项目里自己写的下载存储，发送邮件，等</t>
+  </si>
+  <si>
+    <r>
+      <t>理解项目里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定时任务，启动获取资源配置</t>
+    </r>
+  </si>
+  <si>
+    <t>项目整体架构,做个架构流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -517,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -533,87 +545,87 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.25">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="38.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="27">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:1" ht="14.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="38.25">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:1" ht="14.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="78">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="27">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="25.5">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="63.75">
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="40.5">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="54">
-      <c r="A15" s="3" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="189">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="54">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="40.5">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
